--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Fzd7</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H2">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N2">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q2">
-        <v>5.364457527748076</v>
+        <v>0.07967407514444445</v>
       </c>
       <c r="R2">
-        <v>5.364457527748076</v>
+        <v>0.7170666763</v>
       </c>
       <c r="S2">
-        <v>0.04802846905357065</v>
+        <v>0.0005896393566459394</v>
       </c>
       <c r="T2">
-        <v>0.04802846905357065</v>
+        <v>0.0006649019545721512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H3">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N3">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q3">
-        <v>30.85540911844458</v>
+        <v>0.4138345196642222</v>
       </c>
       <c r="R3">
-        <v>30.85540911844458</v>
+        <v>3.724510676977999</v>
       </c>
       <c r="S3">
-        <v>0.2762512433577928</v>
+        <v>0.003062641386050755</v>
       </c>
       <c r="T3">
-        <v>0.2762512433577928</v>
+        <v>0.003453562284787377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H4">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N4">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q4">
-        <v>21.9333574389797</v>
+        <v>0.3139936559817779</v>
       </c>
       <c r="R4">
-        <v>21.9333574389797</v>
+        <v>2.825942903836</v>
       </c>
       <c r="S4">
-        <v>0.1963713150024982</v>
+        <v>0.002323754834534928</v>
       </c>
       <c r="T4">
-        <v>0.1963713150024982</v>
+        <v>0.002620362962570232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H5">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N5">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q5">
-        <v>15.82508510662177</v>
+        <v>0.2085430876706666</v>
       </c>
       <c r="R5">
-        <v>15.82508510662177</v>
+        <v>1.876887789036</v>
       </c>
       <c r="S5">
-        <v>0.141683405336339</v>
+        <v>0.001543352863828803</v>
       </c>
       <c r="T5">
-        <v>0.141683405336339</v>
+        <v>0.001740349120505685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.194662</v>
+      </c>
+      <c r="I6">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J6">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N6">
+        <v>15.271762</v>
+      </c>
+      <c r="O6">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P6">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q6">
+        <v>0.4954719557406667</v>
+      </c>
+      <c r="R6">
+        <v>2.972831734444</v>
+      </c>
+      <c r="S6">
+        <v>0.003666810875298917</v>
+      </c>
+      <c r="T6">
+        <v>0.002756566015653144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.977119</v>
+      </c>
+      <c r="I7">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J7">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.227883333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.68365</v>
+      </c>
+      <c r="O7">
+        <v>0.05271132222573729</v>
+      </c>
+      <c r="P7">
+        <v>0.05917739429803119</v>
+      </c>
+      <c r="Q7">
+        <v>6.948640489372224</v>
+      </c>
+      <c r="R7">
+        <v>62.53776440435001</v>
+      </c>
+      <c r="S7">
+        <v>0.05142440499358661</v>
+      </c>
+      <c r="T7">
+        <v>0.05798830591540212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H8">
+        <v>16.977119</v>
+      </c>
+      <c r="I8">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J8">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.377739666666666</v>
+      </c>
+      <c r="N8">
+        <v>19.133219</v>
+      </c>
+      <c r="O8">
+        <v>0.2737874857612962</v>
+      </c>
+      <c r="P8">
+        <v>0.3073728625014814</v>
+      </c>
+      <c r="Q8">
+        <v>36.09188175734011</v>
+      </c>
+      <c r="R8">
+        <v>324.826935816061</v>
+      </c>
+      <c r="S8">
+        <v>0.2671031185609344</v>
+      </c>
+      <c r="T8">
+        <v>0.3011966273990156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H9">
+        <v>16.977119</v>
+      </c>
+      <c r="I9">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J9">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.839059333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.517178</v>
+      </c>
+      <c r="O9">
+        <v>0.2077340809703377</v>
+      </c>
+      <c r="P9">
+        <v>0.2332167189067104</v>
+      </c>
+      <c r="Q9">
+        <v>27.3844287166869</v>
+      </c>
+      <c r="R9">
+        <v>246.4598584501821</v>
+      </c>
+      <c r="S9">
+        <v>0.2026623704304116</v>
+      </c>
+      <c r="T9">
+        <v>0.2285305495615342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H10">
+        <v>16.977119</v>
+      </c>
+      <c r="I10">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J10">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.213925999999999</v>
+      </c>
+      <c r="N10">
+        <v>9.641777999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1379693692362262</v>
+      </c>
+      <c r="P10">
+        <v>0.1548940041643702</v>
+      </c>
+      <c r="Q10">
+        <v>18.18773471973133</v>
+      </c>
+      <c r="R10">
+        <v>163.689612477582</v>
+      </c>
+      <c r="S10">
+        <v>0.1346009248246314</v>
+      </c>
+      <c r="T10">
+        <v>0.1517816220955829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H11">
+        <v>16.977119</v>
+      </c>
+      <c r="I11">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J11">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N11">
+        <v>15.271762</v>
+      </c>
+      <c r="O11">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P11">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q11">
+        <v>43.21175346894633</v>
+      </c>
+      <c r="R11">
+        <v>259.270520813678</v>
+      </c>
+      <c r="S11">
+        <v>0.3197947446365695</v>
+      </c>
+      <c r="T11">
+        <v>0.2404092698066356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0767325</v>
+      </c>
+      <c r="H12">
+        <v>0.153465</v>
+      </c>
+      <c r="I12">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J12">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.227883333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.68365</v>
+      </c>
+      <c r="O12">
+        <v>0.05271132222573729</v>
+      </c>
+      <c r="P12">
+        <v>0.05917739429803119</v>
+      </c>
+      <c r="Q12">
+        <v>0.094218557875</v>
+      </c>
+      <c r="R12">
+        <v>0.56531134725</v>
+      </c>
+      <c r="S12">
+        <v>0.0006972778755047397</v>
+      </c>
+      <c r="T12">
+        <v>0.0005241864280569151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0767325</v>
+      </c>
+      <c r="H13">
+        <v>0.153465</v>
+      </c>
+      <c r="I13">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J13">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.377739666666666</v>
+      </c>
+      <c r="N13">
+        <v>19.133219</v>
+      </c>
+      <c r="O13">
+        <v>0.2737874857612962</v>
+      </c>
+      <c r="P13">
+        <v>0.3073728625014814</v>
+      </c>
+      <c r="Q13">
+        <v>0.4893799089724999</v>
+      </c>
+      <c r="R13">
+        <v>2.936279453834999</v>
+      </c>
+      <c r="S13">
+        <v>0.003621725814311055</v>
+      </c>
+      <c r="T13">
+        <v>0.002722672817678308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0767325</v>
+      </c>
+      <c r="H14">
+        <v>0.153465</v>
+      </c>
+      <c r="I14">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J14">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.839059333333334</v>
+      </c>
+      <c r="N14">
+        <v>14.517178</v>
+      </c>
+      <c r="O14">
+        <v>0.2077340809703377</v>
+      </c>
+      <c r="P14">
+        <v>0.2332167189067104</v>
+      </c>
+      <c r="Q14">
+        <v>0.371313120295</v>
+      </c>
+      <c r="R14">
+        <v>2.22787872177</v>
+      </c>
+      <c r="S14">
+        <v>0.00274795570539116</v>
+      </c>
+      <c r="T14">
+        <v>0.002065806382605956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="H6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="N6">
-        <v>7.63570791410934</v>
-      </c>
-      <c r="O6">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="P6">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="Q6">
-        <v>37.71497675834921</v>
-      </c>
-      <c r="R6">
-        <v>37.71497675834921</v>
-      </c>
-      <c r="S6">
-        <v>0.3376655672497995</v>
-      </c>
-      <c r="T6">
-        <v>0.3376655672497995</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0767325</v>
+      </c>
+      <c r="H15">
+        <v>0.153465</v>
+      </c>
+      <c r="I15">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J15">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.213925999999999</v>
+      </c>
+      <c r="N15">
+        <v>9.641777999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1379693692362262</v>
+      </c>
+      <c r="P15">
+        <v>0.1548940041643702</v>
+      </c>
+      <c r="Q15">
+        <v>0.2466125767949999</v>
+      </c>
+      <c r="R15">
+        <v>1.47967546077</v>
+      </c>
+      <c r="S15">
+        <v>0.00182509154776603</v>
+      </c>
+      <c r="T15">
+        <v>0.001372032948281662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0767325</v>
+      </c>
+      <c r="H16">
+        <v>0.153465</v>
+      </c>
+      <c r="I16">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J16">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.635880999999999</v>
+      </c>
+      <c r="N16">
+        <v>15.271762</v>
+      </c>
+      <c r="O16">
+        <v>0.3277977418064026</v>
+      </c>
+      <c r="P16">
+        <v>0.2453390201294068</v>
+      </c>
+      <c r="Q16">
+        <v>0.5859202388324999</v>
+      </c>
+      <c r="R16">
+        <v>2.34368095533</v>
+      </c>
+      <c r="S16">
+        <v>0.004336186294534231</v>
+      </c>
+      <c r="T16">
+        <v>0.002173184307118029</v>
       </c>
     </row>
   </sheetData>
